--- a/NIC/NIC_StatusFile/Config.File.xlsx
+++ b/NIC/NIC_StatusFile/Config.File.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988F0B8-757B-4F5F-B7CA-85EBAD465DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="1560" firstSheet="3" activeTab="5"/>
+    <workbookView minimized="1" xWindow="1890" yWindow="270" windowWidth="9570" windowHeight="10650" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PATHS" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DEBIT ORDER FILES'!$A$1:$G$111</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="380">
   <si>
     <t>Paths</t>
   </si>
@@ -1173,10 +1183,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="ddd"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="ddd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1228,7 +1238,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1238,7 +1248,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1524,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1667,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1770,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1872,7 +1882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4272,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4379,12 +4389,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A144" sqref="A144"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5718,9 +5728,6 @@
       <c r="D143" t="s">
         <v>52</v>
       </c>
-      <c r="G143" t="s">
-        <v>52</v>
-      </c>
       <c r="H143" t="s">
         <v>52</v>
       </c>
@@ -5769,7 +5776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
